--- a/Question-1a/Pref-Bio.xlsx
+++ b/Question-1a/Pref-Bio.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Administré.e</t>
+  </si>
   <si>
     <t>Nom</t>
   </si>
@@ -22,21 +25,6 @@
     <t>Prénom</t>
   </si>
   <si>
-    <t>Naissance</t>
-  </si>
-  <si>
-    <t>Adresse</t>
-  </si>
-  <si>
-    <t>Code Postal</t>
-  </si>
-  <si>
-    <t>Ville</t>
-  </si>
-  <si>
-    <t>Tel</t>
-  </si>
-  <si>
     <t>nbBio</t>
   </si>
   <si>
@@ -44,27 +32,12 @@
   </si>
   <si>
     <t>Georges</t>
-  </si>
-  <si>
-    <t>2 bis, rue Quatrefages</t>
-  </si>
-  <si>
-    <t>14 110</t>
-  </si>
-  <si>
-    <t>CONDE SUR NOIREAU</t>
-  </si>
-  <si>
-    <t>02 46 32 16 42</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -117,12 +90,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,42 +408,18 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2">
-        <v>34912</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2">
+      <c r="D2">
         <v>6</v>
       </c>
     </row>

--- a/Question-1a/Pref-Bio.xlsx
+++ b/Question-1a/Pref-Bio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Administré.e</t>
   </si>
@@ -31,7 +31,25 @@
     <t>CAUCHARD</t>
   </si>
   <si>
+    <t>LIN</t>
+  </si>
+  <si>
+    <t>MEJAT</t>
+  </si>
+  <si>
+    <t>WAHADA</t>
+  </si>
+  <si>
     <t>Georges</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprien </t>
+  </si>
+  <si>
+    <t>Mehdi</t>
   </si>
 </sst>
 </file>
@@ -389,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,10 +435,52 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
